--- a/biology/Zoologie/Paulus_Peronius_Cato_Hoek/Paulus_Peronius_Cato_Hoek.xlsx
+++ b/biology/Zoologie/Paulus_Peronius_Cato_Hoek/Paulus_Peronius_Cato_Hoek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paulus Peronius Cato Hoek, né le 16 juin 1851 à Giethoorn et décédé le 27 février 1914 à Haarlem, est un zoologue hollandais, spécialiste d'ichtyologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'Athénée d'Amsterdam (1862-1868) puis à l'Université de Leyde (1872) où il est diplômé en zoologie.
 Le 1er avril 1874, il devient assistant au Zoötomisch Laboratorium, où il travaillera jusqu'au 31 décembre 1881. Le 5 mars 1875, il publie sa thèse nommée Eerste bijdrage tot een nauwkeuriger kennis der sessile Cirripedien.
@@ -544,7 +558,9 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre des études sur les poissons, ce fut aussi un spécialiste de l'anatomie et de l'histoire du développement des crustacés. Il a aussi publié de nombreuses études sur les araignées de mer.
 En 1882, il a donné, en hommage au navigateur Anton De Bruyne, son nom à l'Anonyx debruyni.
@@ -576,7 +592,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eerste bijdrage tot een nauwkeuriger kennis der sessile Cirripedien, 1875
 Ueber Pycnogoniden, 1877
